--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus _with_constraints Table ) .xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus _with_constraints Table ) .xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$H$3:$J$44</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -605,25 +608,25 @@
     <t>dilu</t>
   </si>
   <si>
-    <t>8 vaibhav, Ishadan soc, paud roea, Pune</t>
-  </si>
-  <si>
-    <t>9 vaibhav, Ishadan soc, paud roea, Pune</t>
-  </si>
-  <si>
-    <t>10  vaibhav, Ishadan soc, paud roea, Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 vaibhav, Ishadan soc, paud roea, Pune</t>
-  </si>
-  <si>
-    <t>7 vaibhav, Ishadan soc, paud roea, Pune</t>
-  </si>
-  <si>
     <t>studentID (FK/unique/NN)</t>
   </si>
   <si>
     <t>facultyID (FK/unique/NN)</t>
+  </si>
+  <si>
+    <t>8 vaibhav, Ishadan soc, paud road, Pune</t>
+  </si>
+  <si>
+    <t>9 vaibhav, Ishadan soc, paud road, Pune</t>
+  </si>
+  <si>
+    <t>10  vaibhav, Ishadan soc, paud road, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 vaibhav, Ishadan soc, paud road, Pune</t>
+  </si>
+  <si>
+    <t>7 vaibhav, Ishadan soc, paud road, Pune</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1116,8 @@
   <dimension ref="B2:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17:AK20"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1304,7 @@
         <v>84</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>3</v>
@@ -1334,7 +1337,7 @@
         <v>84</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>3</v>
@@ -2139,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="13">
-        <v>7032300001</v>
+        <v>7032300801</v>
       </c>
       <c r="L8" s="13">
         <v>5</v>
@@ -4146,7 +4149,7 @@
         <v>21</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD24" s="12"/>
       <c r="AE24" s="32"/>
@@ -4253,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD25" s="12"/>
       <c r="AE25" s="32"/>
@@ -4360,7 +4363,7 @@
         <v>23</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD26" s="12"/>
       <c r="AE26" s="32"/>
@@ -4467,7 +4470,7 @@
         <v>24</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG27" s="12"/>
       <c r="AI27" s="12"/>
@@ -4569,7 +4572,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG28" s="12"/>
       <c r="AM28" s="13">
@@ -5010,7 +5013,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="13">
-        <v>7132300055</v>
+        <v>7132376055</v>
       </c>
       <c r="AG37" s="12"/>
       <c r="BB37" s="13">
@@ -5051,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="13">
-        <v>7132300055</v>
+        <v>7132307055</v>
       </c>
       <c r="AG38" s="12"/>
       <c r="BB38" s="13">
